--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,51</t>
+          <t>5,67; 11,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,12</t>
+          <t>6,68; 14,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,49</t>
+          <t>-0,08; 7,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,29</t>
+          <t>4,58; 12,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,2; 106,66</t>
+          <t>40,81; 109,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,6; 83,01</t>
+          <t>31,95; 83,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 47,1</t>
+          <t>-0,7; 47,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 79,31</t>
+          <t>22,54; 78,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,99</t>
+          <t>9,88; 16,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,49</t>
+          <t>16,14; 22,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,04</t>
+          <t>9,37; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 24,32</t>
+          <t>3,67; 22,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,15; 71,75</t>
+          <t>39,01; 72,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,37; 72,84</t>
+          <t>47,31; 72,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,93; 63,36</t>
+          <t>35,35; 63,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,59; 188,66</t>
+          <t>27,61; 178,13</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 17,68</t>
+          <t>5,31; 17,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 18,48</t>
+          <t>4,93; 18,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 19,28</t>
+          <t>7,25; 18,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,48</t>
+          <t>-3,13; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 81,24</t>
+          <t>18,53; 78,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,9; 55,44</t>
+          <t>12,42; 55,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 79,4</t>
+          <t>23,54; 77,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 38,58</t>
+          <t>-23,97; 41,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,33</t>
+          <t>8,15; 12,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 16,14</t>
+          <t>11,1; 15,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,73</t>
+          <t>7,38; 11,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 18,62</t>
+          <t>4,22; 14,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 64,13</t>
+          <t>38,66; 65,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,79; 57,27</t>
+          <t>36,19; 57,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,6; 51,71</t>
+          <t>29,25; 51,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 143,06</t>
+          <t>29,76; 115,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 11,76</t>
+          <t>5,44; 11,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,05</t>
+          <t>6,65; 13,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,69</t>
+          <t>-0,1; 7,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,81; 109,61</t>
+          <t>38,86; 111,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,95; 83,97</t>
+          <t>32,82; 83,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 47,62</t>
+          <t>-0,5; 47,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,11</t>
+          <t>9,88; 16,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 22,4</t>
+          <t>15,75; 22,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,09</t>
+          <t>9,31; 15,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,01; 72,01</t>
+          <t>38,51; 73,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,31; 72,81</t>
+          <t>45,94; 72,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,35; 63,24</t>
+          <t>35,11; 64,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 17,11</t>
+          <t>5,37; 16,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 18,78</t>
+          <t>4,38; 18,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 18,77</t>
+          <t>6,53; 18,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,53; 78,84</t>
+          <t>20,06; 78,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 55,54</t>
+          <t>10,22; 54,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 77,3</t>
+          <t>22,43; 74,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,42</t>
+          <t>8,15; 12,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,99</t>
+          <t>11,26; 16,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,63</t>
+          <t>7,24; 11,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,66; 65,08</t>
+          <t>38,4; 64,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,19; 57,49</t>
+          <t>36,71; 56,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 51,58</t>
+          <t>29,08; 51,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,86; 111,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,82; 83,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 47,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,54; 78,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 22,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 22,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 73,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,94; 72,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,11; 64,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 178,13</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 16,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 18,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 18,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 78,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 54,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,43; 74,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 41,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,4; 64,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,71; 56,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,08; 51,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,76; 115,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 5,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 4,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 68,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,76; 54,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 24,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,86; 65,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>176,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,43; 18,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,87; 24,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,7; 15,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,69; 39,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,63; 42,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,88; 43,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,98; 34,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,07; 600,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 19,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,32; 23,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,43; 23,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 45,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 36,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,99; 47,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 100,04</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 12,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,18; 15,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,02; 10,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 30,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,62; 34,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,79; 32,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,62; 24,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,54; 434,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,5</t>
+          <t>3,39; 12,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 13,62</t>
+          <t>4,18; 13,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 5,85</t>
+          <t>-4,03; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,52</t>
+          <t>-1,46; 4,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,64; 68,23</t>
+          <t>14,11; 67,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 54,75</t>
+          <t>14,24; 55,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 24,47</t>
+          <t>-13,21; 25,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 65,15</t>
+          <t>-13,71; 61,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,35</t>
+          <t>9,44; 18,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 24,49</t>
+          <t>16,43; 24,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,95</t>
+          <t>7,48; 15,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 39,73</t>
+          <t>4,62; 35,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 42,88</t>
+          <t>19,18; 42,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,88; 43,99</t>
+          <t>27,17; 43,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 34,33</t>
+          <t>14,69; 33,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,07; 600,96</t>
+          <t>56,02; 504,44</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 19,73</t>
+          <t>3,4; 20,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 23,16</t>
+          <t>7,44; 23,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 23,69</t>
+          <t>7,34; 23,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,39</t>
+          <t>-0,48; 5,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 45,0</t>
+          <t>6,2; 48,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 36,02</t>
+          <t>9,84; 36,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 47,18</t>
+          <t>11,91; 46,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 100,04</t>
+          <t>-5,22; 99,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,35</t>
+          <t>5,88; 12,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,34</t>
+          <t>9,37; 14,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,31</t>
+          <t>3,89; 10,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 30,04</t>
+          <t>3,58; 24,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,79</t>
+          <t>14,98; 34,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 32,55</t>
+          <t>18,51; 31,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 24,07</t>
+          <t>8,39; 24,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,54; 434,29</t>
+          <t>43,13; 366,67</t>
         </is>
       </c>
     </row>
